--- a/models/calculation engines/cbix2/outputs/default/final_freight_values.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/final_freight_values.xlsx
@@ -497,10 +497,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.907982342211298</v>
+        <v>8.907982342211296</v>
       </c>
       <c r="B6" t="n">
-        <v>8.907982342211298</v>
+        <v>8.907982342211296</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>8.689882888179397</v>
+        <v>8.689882888179396</v>
       </c>
       <c r="B56" t="n">
-        <v>8.689882888179397</v>
+        <v>8.689882888179396</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6.334994656340528</v>
+        <v>6.334994656340526</v>
       </c>
       <c r="B57" t="n">
-        <v>6.334994656340528</v>
+        <v>6.334994656340526</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6.366789263640809</v>
+        <v>6.366789263640806</v>
       </c>
       <c r="B59" t="n">
-        <v>6.366789263640809</v>
+        <v>6.366789263640806</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>14.75882656377141</v>
+        <v>14.75882656377142</v>
       </c>
       <c r="B68" t="n">
-        <v>14.75882656377141</v>
+        <v>14.75882656377142</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5.319366532244312</v>
+        <v>5.319366532244311</v>
       </c>
       <c r="B84" t="n">
-        <v>5.319366532244312</v>
+        <v>5.319366532244311</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
